--- a/QMU/QMU_app/qmu_app/mc_example.xlsx
+++ b/QMU/QMU_app/qmu_app/mc_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\MC3.0\moca_QMU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\姚方浩\Desktop\QMU_app\qmu_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1E5143-BD04-4AF5-82F9-4FF1D9E604DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB2F758-3B40-4D76-AEC1-35586933E8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="1455" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -599,256 +599,6 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
         <v>0</v>
       </c>
     </row>
